--- a/data/trans_camb/P57_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Provincia-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 3,34</t>
+          <t>-14,76; 3,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -2,35</t>
+          <t>-14,84; -1,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -1,01</t>
+          <t>-12,57; -1,0</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 14,68</t>
+          <t>-42,66; 13,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,1; -10,32</t>
+          <t>-51,33; -8,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; -3,32</t>
+          <t>-41,48; -3,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,67; 44,56</t>
+          <t>30,9; 44,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,79; 41,45</t>
+          <t>29,75; 41,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,78; 41,26</t>
+          <t>32,06; 40,93</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,75; 139,65</t>
+          <t>81,13; 139,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,15; 147,27</t>
+          <t>83,45; 147,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,5; 133,76</t>
+          <t>90,45; 133,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,4; 24,95</t>
+          <t>10,21; 25,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 16,31</t>
+          <t>3,41; 16,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 18,91</t>
+          <t>8,49; 18,66</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,67; 90,66</t>
+          <t>30,08; 95,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,7; 65,44</t>
+          <t>10,55; 66,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,0; 70,98</t>
+          <t>26,09; 68,72</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 9,21</t>
+          <t>-9,03; 9,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 7,38</t>
+          <t>-17,38; 7,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 5,03</t>
+          <t>-11,96; 5,43</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 24,12</t>
+          <t>-20,83; 25,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 21,58</t>
+          <t>-45,02; 21,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 14,09</t>
+          <t>-30,27; 14,6</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,9; 32,34</t>
+          <t>16,1; 32,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,29; 30,47</t>
+          <t>17,7; 30,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,33; 29,07</t>
+          <t>19,09; 29,24</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1009,24 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>82,02; 270,02</t>
+          <t>82,04; 277,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>106,11; 366,76</t>
+          <t>107,38; 333,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>120,0; 264,8</t>
+          <t>112,87; 272,55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 6,95</t>
+          <t>-9,49; 7,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 14,94</t>
+          <t>-0,77; 15,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 8,52</t>
+          <t>-2,76; 8,83</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 14,94</t>
+          <t>-17,23; 16,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 37,32</t>
+          <t>-1,57; 39,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 18,98</t>
+          <t>-5,5; 19,6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>9,54; 20,81</t>
+          <t>8,85; 21,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 15,03</t>
+          <t>-13,68; 15,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 15,53</t>
+          <t>-9,17; 15,5</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>30,0; 77,67</t>
+          <t>27,82; 79,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 59,83</t>
+          <t>-51,13; 61,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 57,93</t>
+          <t>-31,21; 57,04</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>20,36; 59,53</t>
+          <t>20,09; 62,97</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>12,89; 21,38</t>
+          <t>12,6; 21,23</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18,75; 48,96</t>
+          <t>18,54; 48,47</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>99,03; 335,77</t>
+          <t>97,38; 355,98</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>71,62; 154,88</t>
+          <t>70,48; 150,45</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>102,41; 289,58</t>
+          <t>99,74; 295,56</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>15,54; 31,53</t>
+          <t>15,8; 32,13</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,07</t>
+          <t>4,86; 15,1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,52</t>
+          <t>12,05; 22,01</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>50,51; 106,45</t>
+          <t>51,38; 107,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>18,45; 57,71</t>
+          <t>18,02; 58,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>42,09; 77,01</t>
+          <t>42,34; 79,69</t>
         </is>
       </c>
     </row>
